--- a/replication/temp/figureA3_multiple_imputation.xlsx
+++ b/replication/temp/figureA3_multiple_imputation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -34,7 +34,70 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(nan)</t>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>(0.12)</t>
+  </si>
+  <si>
+    <t>(0.63)</t>
+  </si>
+  <si>
+    <t>(0.4)</t>
+  </si>
+  <si>
+    <t>(0.3)</t>
+  </si>
+  <si>
+    <t>(0.2)</t>
+  </si>
+  <si>
+    <t>(0.18)</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>(2.41)</t>
+  </si>
+  <si>
+    <t>(0.35)</t>
+  </si>
+  <si>
+    <t>(1.47)</t>
+  </si>
+  <si>
+    <t>(1.09)</t>
+  </si>
+  <si>
+    <t>(0.75)</t>
+  </si>
+  <si>
+    <t>(0.71)</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>(0.11)</t>
+  </si>
+  <si>
+    <t>(1.03)</t>
+  </si>
+  <si>
+    <t>(0.92)</t>
+  </si>
+  <si>
+    <t>(2.13)</t>
+  </si>
+  <si>
+    <t>(1.29)</t>
+  </si>
+  <si>
+    <t>(2.36)</t>
+  </si>
+  <si>
+    <t>(2.03)</t>
   </si>
 </sst>
 </file>
@@ -517,34 +580,34 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -590,37 +653,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">

--- a/replication/temp/figureA3_multiple_imputation.xlsx
+++ b/replication/temp/figureA3_multiple_imputation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>year</t>
   </si>
@@ -34,70 +34,55 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(0.22)</t>
+    <t>(0.1)</t>
   </si>
   <si>
     <t>(0.12)</t>
   </si>
   <si>
-    <t>(0.63)</t>
+    <t>(1.06)</t>
+  </si>
+  <si>
+    <t>(0.31)</t>
+  </si>
+  <si>
+    <t>(0.53)</t>
+  </si>
+  <si>
+    <t>(0.57)</t>
+  </si>
+  <si>
+    <t>(0.5)</t>
+  </si>
+  <si>
+    <t>(0.14)</t>
+  </si>
+  <si>
+    <t>(1.71)</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>(2.01)</t>
+  </si>
+  <si>
+    <t>(1.09)</t>
+  </si>
+  <si>
+    <t>(0.06)</t>
   </si>
   <si>
     <t>(0.4)</t>
   </si>
   <si>
-    <t>(0.3)</t>
-  </si>
-  <si>
-    <t>(0.2)</t>
-  </si>
-  <si>
-    <t>(0.18)</t>
-  </si>
-  <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>(2.41)</t>
-  </si>
-  <si>
-    <t>(0.35)</t>
-  </si>
-  <si>
-    <t>(1.47)</t>
-  </si>
-  <si>
-    <t>(1.09)</t>
-  </si>
-  <si>
-    <t>(0.75)</t>
-  </si>
-  <si>
-    <t>(0.71)</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
-    <t>(0.11)</t>
-  </si>
-  <si>
-    <t>(1.03)</t>
-  </si>
-  <si>
-    <t>(0.92)</t>
-  </si>
-  <si>
-    <t>(2.13)</t>
-  </si>
-  <si>
-    <t>(1.29)</t>
-  </si>
-  <si>
-    <t>(2.36)</t>
-  </si>
-  <si>
-    <t>(2.03)</t>
+    <t>(0.49)</t>
+  </si>
+  <si>
+    <t>(0.32)</t>
+  </si>
+  <si>
+    <t>(0.45)</t>
   </si>
 </sst>
 </file>
@@ -595,19 +580,19 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -671,19 +656,19 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -691,37 +676,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C7">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D7">
         <v>646</v>
       </c>
       <c r="E7">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F7">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G7">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H7">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="I7">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J7">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K7">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L7">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
